--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591405.8816409498</v>
+        <v>588704.664989493</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>221.0427070190019</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>215.0845781150033</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>104.3766310120711</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>152.4038325533425</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.0595553836731</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>67.18929284317676</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398775</v>
       </c>
       <c r="F5" t="n">
-        <v>373.9365459170492</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776992</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951717</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871382</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>226.7820068586357</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.4946697765293</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44.18949360470384</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643308</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>228.9176563786559</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>119.6924837963196</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>363.5377921948936</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.301154770424842</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>373.3073415346414</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.643495937422</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184529</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812547</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530777</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075612</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474044</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927365</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>93.69087915895705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0997254264179</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520963</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>87.27508091634215</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>212.5602966632204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.56412890121483</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>171.0609515538956</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710059</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>246.4755938422893</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.972649747165</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428085</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428077</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,10 +3980,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.9099126163966</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163966</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>634.167062227511</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>627.2215614783075</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4370,10 +4370,10 @@
         <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>683.2875691835745</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2875691835745</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.1158302633464</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="C3" t="n">
-        <v>268.1158302633464</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="D3" t="n">
-        <v>268.1158302633464</v>
+        <v>126.528050816354</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742757</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>475.9673304688793</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W3" t="n">
-        <v>475.9673304688793</v>
+        <v>691.074259448092</v>
       </c>
       <c r="X3" t="n">
-        <v>268.1158302633464</v>
+        <v>483.2227592425592</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.1158302633464</v>
+        <v>275.4624604776052</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4495,7 +4495,7 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227045</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>986.1084943659507</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>779.3214597764621</v>
       </c>
       <c r="T4" t="n">
-        <v>858.1950192718421</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="U4" t="n">
-        <v>591.8173627046641</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="V4" t="n">
-        <v>337.1328744987773</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>420.9531363008096</v>
+        <v>410.1107921235768</v>
       </c>
       <c r="C5" t="n">
-        <v>420.9531363008096</v>
+        <v>410.1107921235768</v>
       </c>
       <c r="D5" t="n">
-        <v>420.9531363008096</v>
+        <v>410.1107921235768</v>
       </c>
       <c r="E5" t="n">
-        <v>420.9531363008096</v>
+        <v>50.18495430551872</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631542</v>
+        <v>43.23945355631524</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523469</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523469</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523469</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275277</v>
+        <v>93.7664115927513</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245589</v>
+        <v>239.0325989245561</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825675</v>
+        <v>456.1499114825634</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748916</v>
+        <v>729.4041931748861</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202387</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798421</v>
+        <v>1264.916654798414</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189419</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261734</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261734</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261734</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261734</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261734</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261734</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.98225599162</v>
+        <v>783.5765503846567</v>
       </c>
       <c r="X5" t="n">
-        <v>808.5164977305406</v>
+        <v>410.1107921235768</v>
       </c>
       <c r="Y5" t="n">
-        <v>420.9531363008096</v>
+        <v>410.1107921235768</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.33488162878739</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="C6" t="n">
-        <v>67.33488162878739</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="D6" t="n">
-        <v>67.33488162878739</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="E6" t="n">
-        <v>67.33488162878739</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878739</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878739</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878739</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523469</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034555</v>
+        <v>174.272186062639</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516566</v>
+        <v>284.4686930039495</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830095</v>
+        <v>478.9640368353015</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537565</v>
+        <v>829.779171012241</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259801</v>
+        <v>1097.031033584464</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.3179658915</v>
+        <v>1319.294480749982</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090188</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261734</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261734</v>
+        <v>1530.346686757974</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.28249765583</v>
+        <v>1385.878273152069</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207514</v>
+        <v>1189.973630703753</v>
       </c>
       <c r="U6" t="n">
-        <v>966.256771528118</v>
+        <v>961.8525470243574</v>
       </c>
       <c r="V6" t="n">
-        <v>737.1840373274758</v>
+        <v>726.7004387926147</v>
       </c>
       <c r="W6" t="n">
-        <v>482.9466805992741</v>
+        <v>559.5341056850093</v>
       </c>
       <c r="X6" t="n">
-        <v>275.0951803937413</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.33488162878739</v>
+        <v>351.6826054794765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.1452987709704</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="C7" t="n">
-        <v>224.1452987709704</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="D7" t="n">
-        <v>224.1452987709704</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="E7" t="n">
-        <v>179.509446645007</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709662</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709662</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709662</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709662</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523469</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223273</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830401</v>
+        <v>375.138765583039</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638817</v>
+        <v>615.0688576388154</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974848</v>
+        <v>854.7285647974827</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891675</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934025</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495188</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495188</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529577</v>
+        <v>1030.691890529574</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529577</v>
+        <v>806.0266324061182</v>
       </c>
       <c r="U7" t="n">
-        <v>741.5520197059484</v>
+        <v>574.796676468082</v>
       </c>
       <c r="V7" t="n">
-        <v>741.5520197059484</v>
+        <v>320.1121882621951</v>
       </c>
       <c r="W7" t="n">
-        <v>452.1348496689878</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="X7" t="n">
-        <v>224.1452987709704</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.1452987709704</v>
+        <v>30.6950182252345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357.104639024233</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1357.104639024233</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>998.8389404174829</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>998.8389404174829</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>587.8530356278754</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>172.1482853521643</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000045</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1747.243971000045</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.104639024233</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.5015368643224</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>606.9425808380922</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.1500016945621</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2324.742769918475</v>
+        <v>1485.490329133575</v>
       </c>
       <c r="C11" t="n">
-        <v>1955.780252978064</v>
+        <v>1485.490329133575</v>
       </c>
       <c r="D11" t="n">
-        <v>1597.514554371313</v>
+        <v>1127.224630526825</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285808</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>741.4363779285808</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>326.8206133697263</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592091</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656971</v>
+        <v>695.1615405656969</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625332</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087835</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484047</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535303</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967480003</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946407</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796045</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796045</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.90468937741</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498938</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155367</v>
+        <v>2988.463914704703</v>
       </c>
       <c r="W11" t="n">
-        <v>3088.347860155367</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2714.882101894287</v>
+        <v>2262.229501173509</v>
       </c>
       <c r="Y11" t="n">
-        <v>2324.742769918475</v>
+        <v>1872.090169197697</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390855</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592091</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592091</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335458</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914983</v>
+        <v>488.5008422034049</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948028</v>
+        <v>996.4574081599335</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649239</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981762</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>365.7608055583775</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>196.8246226304706</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592091</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758653</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648152</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344822</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376941</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336949</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818667</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010725</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742812</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742812</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276108</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276108</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225559</v>
+        <v>1358.644593842773</v>
       </c>
       <c r="V13" t="n">
-        <v>1565.518176549844</v>
+        <v>1103.960105636886</v>
       </c>
       <c r="W13" t="n">
-        <v>1276.101006512884</v>
+        <v>814.5429355999249</v>
       </c>
       <c r="X13" t="n">
-        <v>1276.101006512884</v>
+        <v>586.5533847019076</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>365.7608055583775</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,43 +5282,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703798</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969314</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888044</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2111.482263955954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.407037300152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.722549094265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972543</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.67509321183</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,49 +5753,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>904.461687384549</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.840175011101</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257315</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133958</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310027</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235162</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1097.958364892465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.0221819645582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>778.9055425522224</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>630.9924489698293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.1025014719189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>316.9064021867989</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.194571028997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143764</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602301</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396414</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.176099401437</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797183</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797183</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797183</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,10 +6713,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400703</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121634</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121634</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138402</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.50206557031</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7020,19 +7020,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637304</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444888</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684175</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400704</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121635</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270435</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703102</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,10 +7175,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121634</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121634</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121634</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636957</v>
+        <v>34.43939438637005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953001084</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254481</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.623028537620428</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195273</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615195</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080796</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905224</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>158.446764164871</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624417</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>66.30572490087039</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533521084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294975</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.6241777260237</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7017074173507183</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459345</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.4620467826954</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823125</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>39.70888054695481</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194304</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194312</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459338</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927325.4906782302</v>
+        <v>927325.4906782298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1020522.184947741</v>
+        <v>1020522.184947742</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>410520.8849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371984</v>
+        <v>366294.6221371985</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
@@ -26332,22 +26332,22 @@
         <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657097</v>
+        <v>132804.2190657072</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929351</v>
+        <v>265413.0723929374</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545795</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704263</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
-        <v>2.269590948281834e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417483</v>
+        <v>30877.42926417429</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049512</v>
+        <v>65018.34502049559</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273136</v>
+        <v>81897.403712731</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202291</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099257</v>
+        <v>217460.7998099263</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26427,22 +26427,22 @@
         <v>12281.50162217159</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181803</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,13 +26451,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181818</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667514</v>
+        <v>72593.65038667496</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738585</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-585631.6637706527</v>
       </c>
       <c r="C6" t="n">
-        <v>-12337.78433016909</v>
+        <v>-12337.78433016695</v>
       </c>
       <c r="D6" t="n">
-        <v>-90576.91716833759</v>
+        <v>-90576.91716833986</v>
       </c>
       <c r="E6" t="n">
-        <v>-44701.52190693858</v>
+        <v>-44922.65322091166</v>
       </c>
       <c r="F6" t="n">
-        <v>100755.5810688515</v>
+        <v>100720.8431434141</v>
       </c>
       <c r="G6" t="n">
-        <v>290063.8498392777</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="H6" t="n">
-        <v>290063.849839278</v>
+        <v>290029.1119138423</v>
       </c>
       <c r="I6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="J6" t="n">
-        <v>221064.6954201639</v>
+        <v>221029.957494728</v>
       </c>
       <c r="K6" t="n">
-        <v>259186.420575103</v>
+        <v>259151.6826496677</v>
       </c>
       <c r="L6" t="n">
-        <v>225045.5048187828</v>
+        <v>225010.7668933464</v>
       </c>
       <c r="M6" t="n">
-        <v>208166.4461265465</v>
+        <v>208131.7082011111</v>
       </c>
       <c r="N6" t="n">
-        <v>240224.2757072549</v>
+        <v>240189.5377818186</v>
       </c>
       <c r="O6" t="n">
-        <v>290063.8498392779</v>
+        <v>290029.1119138421</v>
       </c>
       <c r="P6" t="n">
-        <v>290063.8498392778</v>
+        <v>290029.1119138421</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.272377253606402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,16 +26738,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695768</v>
+        <v>717.3319511695749</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214952</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154336</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490113</v>
+        <v>969.2208239490099</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.272377253606402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000985</v>
+        <v>103.2769374000967</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479623</v>
+        <v>216.7329409479642</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974131</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267211</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139275</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846051</v>
+        <v>256.8971042846075</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489726</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506366</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139273</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846056</v>
+        <v>256.8971042846075</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489726</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506364</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.272377253606402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139275</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846051</v>
+        <v>256.8971042846075</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489726</v>
+        <v>328.6359918489711</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506366</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>191.7914676267081</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>154.6465225634658</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>53.2684494433298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>80.39675459608281</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999084</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>156.0250530363891</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063238429</v>
       </c>
       <c r="F5" t="n">
-        <v>32.93949982466222</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863661</v>
+        <v>99.30025118863689</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840619968</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333224</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713579</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.0185802907896</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.20031338439028</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.2444690418653</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015376</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>57.33081573673635</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>181.3260687660858</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>6.193308483575436</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.945666328203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.464965855951645e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.357704936930948e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.272377253606402e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.67535196443827e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.272377253606402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.415399411803563e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30514,10 +30514,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.057376408652999e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30700,10 +30700,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365131</v>
+        <v>2.883746537365123</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579065</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817693</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675694</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.82337360236</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952482</v>
+        <v>455.0768316952471</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791154</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028404</v>
+        <v>514.5541040284028</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974795</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562778</v>
+        <v>414.6863567562767</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886889</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277626</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020798</v>
+        <v>65.71337422020781</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731587</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892104</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54294042327041</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316423</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189791</v>
+        <v>53.12316808189777</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862628</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453803</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043867</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874193</v>
+        <v>390.9459133874183</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189126</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348682</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190664</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739563</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392955</v>
+        <v>95.79765189392931</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399204</v>
+        <v>28.65944163399196</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989064</v>
+        <v>6.219132670989048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730534</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29354942014186</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907945</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572066</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402947</v>
+        <v>91.45394400402924</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401178</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545452</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.769751377328</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.948339902254</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669604</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960663</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266061</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565124</v>
+        <v>58.16268574565109</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101767</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060671</v>
+        <v>5.526983886060657</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864697</v>
+        <v>0.07055724109864679</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869151</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639246</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285606</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203922</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975135</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544666</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954571</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180179</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956816</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620368</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825976</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696633</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900934</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968222</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149532</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858577</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837099</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469223</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598387</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747757</v>
+        <v>156.4572543240549</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821488</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340514</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924482</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>411.2476038555548</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962766</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868435</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643801</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535159</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.2752775409217</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798464</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085358</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.879393632903</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100546</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770068</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531033</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806243</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493068</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194578</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811724</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493545</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377497</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473725</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338216</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950826</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>468.9317632523004</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622667</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,31 +33977,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,31 +34451,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900768</v>
+        <v>63.70847814900708</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573794</v>
+        <v>146.7335225573785</v>
       </c>
       <c r="L5" t="n">
-        <v>219.310416725261</v>
+        <v>219.3104167252598</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518427</v>
+        <v>276.0144259518413</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318131</v>
+        <v>285.1410404318119</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757928</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010083</v>
+        <v>183.4533610010072</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243947</v>
+        <v>89.10649401243867</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960693</v>
+        <v>145.0274422600046</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710213</v>
+        <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639928</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>248.811879465401</v>
+        <v>354.358721390848</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355793</v>
+        <v>269.9513763355783</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904238</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047362</v>
+        <v>160.6595406047354</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237838</v>
+        <v>56.97321748793425</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.017431714235</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148614</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391686</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814826</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586810001</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609598</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.1550813749117</v>
+        <v>22.15508137491143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937059</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525329</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844795</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681844</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521427</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739948</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067672</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081481</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553119</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854797</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949015</v>
+        <v>17.90287454418073</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601306</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507182</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480038</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>277.2731964412246</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186299</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070202</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703707</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388474</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323319</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.018681294664</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142003</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677634</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394741</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075232</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>330.3773834724262</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060434</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010431</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402485</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
